--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434997.9915387466</v>
+        <v>430370.3447566084</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7289810.896587499</v>
+        <v>7289810.8965875</v>
       </c>
     </row>
     <row r="9">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6530000821519227</v>
+        <v>0.570411643236317</v>
       </c>
       <c r="F5" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.08258843891560583</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="Y5" t="n">
         <v>0.7413715737419651</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6530000821519226</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6530000821519227</v>
       </c>
       <c r="F6" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6530000821519227</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6530000821519226</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>8.979937655612986</v>
       </c>
       <c r="C8" t="n">
-        <v>8.002770554088141</v>
+        <v>7.966354006962826</v>
       </c>
       <c r="D8" t="n">
         <v>8.979937655612986</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03641654712531528</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1217,61 +1217,61 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="E9" t="n">
-        <v>7.909529087063915</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.909529087063913</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>8.979937655612986</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.979937655612986</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>7.909529087063913</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.4626060417307</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>309.5903236501155</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>36.24395125331885</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.3162779474428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>241.4246743839735</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>25.68024965811662</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>69.49283677113746</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>61.45785951416701</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>197.2994936006749</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.54257852801823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>108.6835547225997</v>
       </c>
       <c r="U19" t="n">
-        <v>235.7207937659546</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>47.34622835333847</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>329.9261062370811</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.18431507125877</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>33.2448299700908</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250878</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.06172118771259</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.4451592506091</v>
       </c>
       <c r="U23" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>71.58378022585077</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>108.4792144560908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5013027492016</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.6443779850655</v>
@@ -2496,7 +2496,7 @@
         <v>133.9117463603411</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>236.846769286241</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3307846315909</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>165.4641025825856</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>389.5273270888242</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.177760651048</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>165.7031170081837</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>87.20945504248522</v>
+        <v>113.9490908675181</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.846769286241</v>
       </c>
       <c r="U28" t="n">
         <v>277.3307846315909</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2803,10 +2803,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>98.34026959642466</v>
       </c>
       <c r="G29" t="n">
-        <v>311.5268330326472</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.06172118771259</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T29" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>104.0688164976581</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>54.01068651189509</v>
       </c>
       <c r="G31" t="n">
         <v>163.6443779850655</v>
       </c>
       <c r="H31" t="n">
-        <v>133.9117463603411</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.851782371094693</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.8178529035785</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.06172118771259</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T32" t="n">
         <v>209.4451592506091</v>
@@ -3088,7 +3088,7 @@
         <v>255.60192741872</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>90.6042458228053</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>105.4895395288295</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.55977705033525</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>70.20112935697682</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.851782371094693</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.846769286241</v>
       </c>
       <c r="U34" t="n">
         <v>277.3307846315909</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>353.3604815890413</v>
+        <v>297.145125415406</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.177760651048</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.06172118771259</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>70.25459206254141</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>133.9117463603411</v>
       </c>
       <c r="I37" t="n">
-        <v>70.20112935697682</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.851782371094693</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S37" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.846769286241</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3307846315909</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>233.7312834721021</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.06172118771259</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.5389012254616</v>
+        <v>92.86559855828008</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>82.52238637188051</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3681,7 +3681,7 @@
         <v>133.9117463603411</v>
       </c>
       <c r="I40" t="n">
-        <v>70.20112935697682</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>277.3307846315909</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>120.9627722430821</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>93.11721025254562</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>55.06172118771259</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>123.7889290606758</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6443779850655</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>133.9117463603411</v>
       </c>
       <c r="I43" t="n">
-        <v>70.20112935697682</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.851782371094693</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.846769286241</v>
       </c>
       <c r="U43" t="n">
         <v>277.3307846315909</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>156.1271514548421</v>
       </c>
       <c r="W43" t="n">
-        <v>113.8195015695757</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>136.9699769600396</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.177760651048</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>55.06172118771259</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>128.8863984955294</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>149.7319880016723</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>113.9490908675177</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T46" t="n">
-        <v>236.846769286241</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3307846315909</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.216626119470926</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="C5" t="n">
         <v>1.467765943973991</v>
@@ -4552,10 +4552,10 @@
         <v>1.467765943973991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8081699013962916</v>
+        <v>0.8915925669676106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.1427323914706762</v>
       </c>
       <c r="G5" t="n">
         <v>0.05930972589935721</v>
@@ -4567,28 +4567,28 @@
         <v>0.05930972589935721</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="P5" t="n">
-        <v>1.527225441908448</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.261183299912993</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="R5" t="n">
         <v>2.96548629496786</v>
@@ -4609,10 +4609,10 @@
         <v>2.96548629496786</v>
       </c>
       <c r="X5" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.216626119470926</v>
+        <v>1.467765943973991</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="C6" t="n">
-        <v>1.467765943973991</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="D6" t="n">
-        <v>1.467765943973991</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="E6" t="n">
+        <v>1.557030076893226</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8081699013962916</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.05930972589935721</v>
       </c>
       <c r="G6" t="n">
         <v>0.05930972589935721</v>
@@ -4688,10 +4688,10 @@
         <v>2.96548629496786</v>
       </c>
       <c r="X6" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8081699013962916</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05930972589935721</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05930972589935721</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05930972589935721</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="I7" t="n">
         <v>0.05930972589935721</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7932675839039026</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="N7" t="n">
-        <v>1.527225441908448</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O7" t="n">
-        <v>2.231528436963315</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="P7" t="n">
         <v>2.96548629496786</v>
@@ -4752,25 +4752,25 @@
         <v>2.96548629496786</v>
       </c>
       <c r="S7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="T7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="U7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="X7" t="n">
-        <v>2.305890252390161</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.557030076893226</v>
+        <v>2.216626119470926</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>17.87264572931887</v>
       </c>
       <c r="C8" t="n">
-        <v>9.789039109027813</v>
+        <v>9.825823500063485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7183950124490389</v>
+        <v>0.7551794034847109</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7183950124490389</v>
+        <v>0.7551794034847109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7183950124490389</v>
+        <v>0.7551794034847109</v>
       </c>
       <c r="G8" t="n">
         <v>0.7183950124490389</v>
@@ -4807,25 +4807,25 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.608533291505895</v>
       </c>
       <c r="L8" t="n">
-        <v>3.29276997143486</v>
+        <v>12.18290825049172</v>
       </c>
       <c r="M8" t="n">
-        <v>11.91174853477717</v>
+        <v>20.80188681383403</v>
       </c>
       <c r="N8" t="n">
-        <v>20.80188681383403</v>
+        <v>29.69202509289089</v>
       </c>
       <c r="O8" t="n">
-        <v>27.02961234339509</v>
+        <v>35.91975062245194</v>
       </c>
       <c r="P8" t="n">
-        <v>27.02961234339509</v>
+        <v>35.91975062245194</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.02961234339509</v>
+        <v>35.91975062245194</v>
       </c>
       <c r="R8" t="n">
         <v>35.91975062245194</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="C9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="D9" t="n">
-        <v>35.91975062245194</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="E9" t="n">
-        <v>27.93032730218536</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="F9" t="n">
-        <v>18.85968320560659</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="G9" t="n">
-        <v>9.789039109027813</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="H9" t="n">
         <v>0.7183950124490389</v>
@@ -4892,7 +4892,7 @@
         <v>8.2458079501616</v>
       </c>
       <c r="M9" t="n">
-        <v>13.46924090635374</v>
+        <v>17.13594622921845</v>
       </c>
       <c r="N9" t="n">
         <v>22.3593791854106</v>
@@ -4916,19 +4916,19 @@
         <v>35.91975062245194</v>
       </c>
       <c r="U9" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="V9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="W9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="X9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.91975062245194</v>
+        <v>17.77846242929439</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.707818332715618</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="C10" t="n">
-        <v>8.707818332715618</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="D10" t="n">
-        <v>8.707818332715618</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="E10" t="n">
-        <v>8.707818332715618</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="F10" t="n">
         <v>0.7183950124490389</v>
@@ -4965,22 +4965,22 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="K10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7183950124490389</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.608533291505895</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
+        <v>9.608533291505895</v>
+      </c>
+      <c r="O10" t="n">
         <v>18.49867157056275</v>
       </c>
-      <c r="M10" t="n">
-        <v>27.38880984961961</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27.38880984961961</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.38880984961961</v>
-      </c>
       <c r="P10" t="n">
-        <v>27.38880984961961</v>
+        <v>27.02961234339509</v>
       </c>
       <c r="Q10" t="n">
         <v>35.91975062245194</v>
@@ -4992,22 +4992,22 @@
         <v>26.84910652587317</v>
       </c>
       <c r="T10" t="n">
-        <v>17.77846242929439</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="U10" t="n">
-        <v>17.77846242929439</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="V10" t="n">
-        <v>17.77846242929439</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="W10" t="n">
         <v>17.77846242929439</v>
       </c>
       <c r="X10" t="n">
-        <v>17.77846242929439</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.707818332715618</v>
+        <v>9.789039109027813</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1116.127394853994</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="C11" t="n">
-        <v>887.3772877411345</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D11" t="n">
-        <v>887.3772877411345</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E11" t="n">
-        <v>461.4003478889921</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F11" t="n">
-        <v>36.27616607839229</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5059,10 +5059,10 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R11" t="n">
         <v>1813.808303919614</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1535.975759145524</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1535.975759145524</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1535.975759145524</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W11" t="n">
-        <v>1535.975759145524</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="X11" t="n">
-        <v>1535.975759145524</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="Y11" t="n">
-        <v>1535.975759145524</v>
+        <v>865.7688456352926</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432383</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607431</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760281</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489653</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318694</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004428</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839327</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968759</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255166</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>267.1899758967567</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8288267274056</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>653.1035252084207</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>870.258507040737</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1065.302174028224</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1225.987570233633</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453737</v>
@@ -5147,10 +5147,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510332</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555136</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
         <v>1427.028547670862</v>
@@ -5159,13 +5159,13 @@
         <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
-        <v>1025.534031643346</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100086</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.363796763301</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.104676471574</v>
+        <v>410.9561979220074</v>
       </c>
       <c r="C13" t="n">
-        <v>173.104676471574</v>
+        <v>410.9561979220074</v>
       </c>
       <c r="D13" t="n">
-        <v>173.104676471574</v>
+        <v>410.9561979220074</v>
       </c>
       <c r="E13" t="n">
-        <v>173.104676471574</v>
+        <v>244.747992074861</v>
       </c>
       <c r="F13" t="n">
-        <v>173.104676471574</v>
+        <v>72.88621784942143</v>
       </c>
       <c r="G13" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>463.8388611422041</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424263</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.252239462531</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.250945554479</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O13" t="n">
-        <v>1551.168500774583</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973493</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251775</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T13" t="n">
-        <v>1417.340083083372</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U13" t="n">
-        <v>1137.198381565876</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V13" t="n">
-        <v>855.4869141739052</v>
+        <v>843.686063188268</v>
       </c>
       <c r="W13" t="n">
-        <v>580.6345103464182</v>
+        <v>843.686063188268</v>
       </c>
       <c r="X13" t="n">
-        <v>338.0706137922233</v>
+        <v>601.1221666340731</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.104676471574</v>
+        <v>601.1221666340731</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.808303919614</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.808303919614</v>
+        <v>910.6326148233015</v>
       </c>
       <c r="D14" t="n">
-        <v>1569.944996461055</v>
+        <v>487.3399940083018</v>
       </c>
       <c r="E14" t="n">
-        <v>1143.968056608913</v>
+        <v>487.3399940083018</v>
       </c>
       <c r="F14" t="n">
-        <v>718.8438747983129</v>
+        <v>62.21581219770201</v>
       </c>
       <c r="G14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839229</v>
@@ -5278,16 +5278,16 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
         <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,7 +5296,7 @@
         <v>1382.739131455148</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
         <v>1740.927517189221</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.808303919614</v>
+        <v>1337.533344810001</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.808303919614</v>
+        <v>1337.533344810001</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>75.26691519968661</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>254.1641319694771</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967557</v>
+        <v>379.9327575407171</v>
       </c>
       <c r="L15" t="n">
-        <v>443.8288267274047</v>
+        <v>556.5716083713661</v>
       </c>
       <c r="M15" t="n">
-        <v>653.1035252084198</v>
+        <v>765.8463068523812</v>
       </c>
       <c r="N15" t="n">
-        <v>870.258507040736</v>
+        <v>983.0012886846974</v>
       </c>
       <c r="O15" t="n">
-        <v>1072.589455387279</v>
+        <v>1178.044955672184</v>
       </c>
       <c r="P15" t="n">
-        <v>1225.987570233631</v>
+        <v>1331.443070518537</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.6345103464182</v>
+        <v>537.6629190242077</v>
       </c>
       <c r="C16" t="n">
-        <v>580.6345103464182</v>
+        <v>537.6629190242077</v>
       </c>
       <c r="D16" t="n">
-        <v>580.6345103464182</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="E16" t="n">
-        <v>510.4397257291076</v>
+        <v>208.1379403038319</v>
       </c>
       <c r="F16" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839229</v>
@@ -5436,22 +5436,22 @@
         <v>36.27616607839229</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583899</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>385.9171444939832</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>834.8346997140878</v>
+        <v>556.3346842424263</v>
       </c>
       <c r="M16" t="n">
-        <v>1207.074694722676</v>
+        <v>1005.252239462531</v>
       </c>
       <c r="N16" t="n">
-        <v>1304.073400814624</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210256</v>
       </c>
       <c r="P16" t="n">
         <v>1773.863841351392</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1657.330917251775</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1417.340083083372</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U16" t="n">
-        <v>1137.198381565876</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V16" t="n">
-        <v>855.4869141739052</v>
+        <v>1471.587956428213</v>
       </c>
       <c r="W16" t="n">
-        <v>580.6345103464182</v>
+        <v>1196.735552600726</v>
       </c>
       <c r="X16" t="n">
-        <v>580.6345103464182</v>
+        <v>954.1716560465313</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.6345103464182</v>
+        <v>727.8288877362734</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1311.593698690692</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="C17" t="n">
-        <v>884.6929687039918</v>
+        <v>1064.137473279195</v>
       </c>
       <c r="D17" t="n">
-        <v>461.4003478889921</v>
+        <v>1064.137473279195</v>
       </c>
       <c r="E17" t="n">
-        <v>461.4003478889921</v>
+        <v>638.1605334270522</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149077</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303099</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5533,34 +5533,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="Y17" t="n">
-        <v>1731.442062982222</v>
+        <v>1491.038203265894</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J18" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780107</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N18" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1357.404666497813</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.1105034249158</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C19" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="D19" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="E19" t="n">
-        <v>208.1379403038318</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L19" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623088</v>
       </c>
       <c r="M19" t="n">
-        <v>654.3880318200453</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
-        <v>941.448973416843</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210256</v>
       </c>
       <c r="P19" t="n">
-        <v>1773.863841351391</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1704.026935512948</v>
       </c>
       <c r="U19" t="n">
-        <v>1179.238271198569</v>
+        <v>1423.885233995453</v>
       </c>
       <c r="V19" t="n">
-        <v>897.5268038065976</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W19" t="n">
-        <v>622.6743999791107</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X19" t="n">
-        <v>380.1105034249158</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.1105034249158</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>864.845055500735</v>
+        <v>936.9783090014149</v>
       </c>
       <c r="C20" t="n">
-        <v>864.845055500735</v>
+        <v>510.077579014715</v>
       </c>
       <c r="D20" t="n">
-        <v>864.845055500735</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E20" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="F20" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M20" t="n">
         <v>862.6140377103482</v>
@@ -5767,13 +5767,13 @@
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
@@ -5782,22 +5782,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543254</v>
+        <v>1342.315579046525</v>
       </c>
       <c r="V20" t="n">
-        <v>1198.103748669504</v>
+        <v>1342.315579046525</v>
       </c>
       <c r="W20" t="n">
-        <v>1198.103748669504</v>
+        <v>1342.315579046525</v>
       </c>
       <c r="X20" t="n">
-        <v>864.845055500735</v>
+        <v>1342.315579046525</v>
       </c>
       <c r="Y20" t="n">
-        <v>864.845055500735</v>
+        <v>936.9783090014149</v>
       </c>
     </row>
     <row r="21">
@@ -5819,31 +5819,31 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968662</v>
       </c>
       <c r="J21" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>628.9641045014104</v>
+        <v>628.96410450141</v>
       </c>
       <c r="L21" t="n">
-        <v>805.6029553320593</v>
+        <v>805.6029553320591</v>
       </c>
       <c r="M21" t="n">
         <v>1014.877653813074</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1232.03263564539</v>
       </c>
       <c r="O21" t="n">
         <v>1427.076302632877</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>537.0387771047996</v>
+        <v>318.0300976061425</v>
       </c>
       <c r="C22" t="n">
-        <v>365.0662139837156</v>
+        <v>146.0575344850585</v>
       </c>
       <c r="D22" t="n">
-        <v>201.7494411104863</v>
+        <v>146.0575344850585</v>
       </c>
       <c r="E22" t="n">
-        <v>201.7494411104863</v>
+        <v>146.0575344850585</v>
       </c>
       <c r="F22" t="n">
-        <v>201.7494411104863</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>148.0721041840599</v>
       </c>
       <c r="K22" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L22" t="n">
-        <v>718.9944949477219</v>
+        <v>912.7564163623088</v>
       </c>
       <c r="M22" t="n">
-        <v>1167.912050167826</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1616.829605387931</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210255</v>
+        <v>1551.749235832357</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973493</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5937,25 +5937,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1417.340083083371</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1137.198381565876</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>855.4869141739048</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>855.4869141739048</v>
+        <v>977.102731182661</v>
       </c>
       <c r="X22" t="n">
-        <v>855.4869141739048</v>
+        <v>734.5388346284661</v>
       </c>
       <c r="Y22" t="n">
-        <v>629.1441458636468</v>
+        <v>508.1960663182082</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1299.347970321288</v>
+        <v>1173.107441709434</v>
       </c>
       <c r="C23" t="n">
-        <v>1299.347970321288</v>
+        <v>1173.107441709434</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.347970321288</v>
+        <v>1173.107441709434</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3710304691458</v>
+        <v>747.1305018572916</v>
       </c>
       <c r="F23" t="n">
-        <v>448.246848658546</v>
+        <v>322.0063200466918</v>
       </c>
       <c r="G23" t="n">
-        <v>46.04709042516417</v>
+        <v>322.0063200466918</v>
       </c>
       <c r="H23" t="n">
         <v>46.04709042516417</v>
       </c>
       <c r="I23" t="n">
-        <v>92.67892826359184</v>
+        <v>92.6789282635915</v>
       </c>
       <c r="J23" t="n">
-        <v>241.5106779985545</v>
+        <v>241.5106779985541</v>
       </c>
       <c r="K23" t="n">
-        <v>472.8158994151631</v>
+        <v>472.8158994151628</v>
       </c>
       <c r="L23" t="n">
         <v>765.7670162911687</v>
@@ -6001,7 +6001,7 @@
         <v>1096.877863037624</v>
       </c>
       <c r="N23" t="n">
-        <v>1434.096173311729</v>
+        <v>1434.09617331173</v>
       </c>
       <c r="O23" t="n">
         <v>1750.354881365387</v>
@@ -6016,25 +6016,25 @@
         <v>2302.354521258208</v>
       </c>
       <c r="S23" t="n">
-        <v>2246.7366210686</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="T23" t="n">
-        <v>2035.175854148793</v>
+        <v>2090.793754338401</v>
       </c>
       <c r="U23" t="n">
-        <v>1776.992089079379</v>
+        <v>2090.793754338401</v>
       </c>
       <c r="V23" t="n">
-        <v>1776.992089079379</v>
+        <v>2090.793754338401</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.685240366398</v>
+        <v>1694.402404638748</v>
       </c>
       <c r="X23" t="n">
-        <v>1704.685240366398</v>
+        <v>1282.682405806496</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.347970321288</v>
+        <v>1173.107441709434</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>68.66154465776</v>
       </c>
       <c r="J24" t="n">
-        <v>154.2468150698338</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K24" t="n">
-        <v>313.2258330431756</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5201548754284</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M24" t="n">
-        <v>795.9056817528206</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N24" t="n">
-        <v>1066.550710548557</v>
+        <v>1213.037108037032</v>
       </c>
       <c r="O24" t="n">
-        <v>1310.527320378665</v>
+        <v>1457.013717867141</v>
       </c>
       <c r="P24" t="n">
         <v>1649.684833349143</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.8554869008868</v>
+        <v>919.0166057033749</v>
       </c>
       <c r="C25" t="n">
-        <v>847.9955851340166</v>
+        <v>747.0440425822909</v>
       </c>
       <c r="D25" t="n">
-        <v>684.6788122607873</v>
+        <v>583.7272697090616</v>
       </c>
       <c r="E25" t="n">
-        <v>518.4706064136408</v>
+        <v>417.5190638619151</v>
       </c>
       <c r="F25" t="n">
-        <v>346.6088321882012</v>
+        <v>417.5190638619151</v>
       </c>
       <c r="G25" t="n">
-        <v>181.311480688135</v>
+        <v>252.2217123618489</v>
       </c>
       <c r="H25" t="n">
-        <v>46.04709042516417</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="I25" t="n">
         <v>46.04709042516417</v>
@@ -6159,40 +6159,40 @@
         <v>1125.43308967308</v>
       </c>
       <c r="N25" t="n">
-        <v>1355.254353219805</v>
+        <v>1248.817164223329</v>
       </c>
       <c r="O25" t="n">
-        <v>1843.620963712211</v>
+        <v>1737.183774715735</v>
       </c>
       <c r="P25" t="n">
-        <v>2247.972012657228</v>
+        <v>2141.534823660751</v>
       </c>
       <c r="Q25" t="n">
         <v>2302.354521258208</v>
       </c>
       <c r="R25" t="n">
-        <v>2302.354521258208</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="S25" t="n">
-        <v>2302.354521258208</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="T25" t="n">
-        <v>2063.115360363015</v>
+        <v>2059.224671099284</v>
       </c>
       <c r="U25" t="n">
-        <v>1782.98325467454</v>
+        <v>2059.224671099284</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.271787282569</v>
+        <v>1777.513203707312</v>
       </c>
       <c r="W25" t="n">
-        <v>1226.419383455082</v>
+        <v>1502.660799879825</v>
       </c>
       <c r="X25" t="n">
-        <v>983.8554869008868</v>
+        <v>1335.525342725698</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.8554869008868</v>
+        <v>1109.182574415441</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1266.832977023514</v>
+        <v>898.0720022224639</v>
       </c>
       <c r="C26" t="n">
-        <v>1266.832977023514</v>
+        <v>471.171272235764</v>
       </c>
       <c r="D26" t="n">
-        <v>1266.832977023514</v>
+        <v>471.171272235764</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3710304691458</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F26" t="n">
-        <v>448.246848658546</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G26" t="n">
         <v>46.04709042516417</v>
@@ -6226,19 +6226,19 @@
         <v>92.67892826359139</v>
       </c>
       <c r="J26" t="n">
-        <v>241.5106779985539</v>
+        <v>241.5106779985545</v>
       </c>
       <c r="K26" t="n">
-        <v>472.8158994151627</v>
+        <v>472.8158994151634</v>
       </c>
       <c r="L26" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911691</v>
       </c>
       <c r="M26" t="n">
-        <v>1096.877863037623</v>
+        <v>1096.877863037624</v>
       </c>
       <c r="N26" t="n">
-        <v>1434.096173311729</v>
+        <v>1434.09617331173</v>
       </c>
       <c r="O26" t="n">
         <v>1750.354881365387</v>
@@ -6259,19 +6259,19 @@
         <v>2302.354521258208</v>
       </c>
       <c r="U26" t="n">
-        <v>2044.170756188794</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="V26" t="n">
-        <v>1686.681341315044</v>
+        <v>2134.977635391356</v>
       </c>
       <c r="W26" t="n">
-        <v>1686.681341315044</v>
+        <v>2134.977635391356</v>
       </c>
       <c r="X26" t="n">
-        <v>1686.681341315044</v>
+        <v>1723.257636559104</v>
       </c>
       <c r="Y26" t="n">
-        <v>1686.681341315044</v>
+        <v>1317.920366513994</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>68.66154465776</v>
       </c>
       <c r="J27" t="n">
-        <v>300.7332125583092</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K27" t="n">
-        <v>459.712230531651</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L27" t="n">
-        <v>681.0065523639038</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M27" t="n">
-        <v>942.392079241296</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N27" t="n">
         <v>1213.037108037032</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.5859107737563</v>
+        <v>567.3467498785633</v>
       </c>
       <c r="C28" t="n">
-        <v>634.6133476526722</v>
+        <v>395.3741867574793</v>
       </c>
       <c r="D28" t="n">
-        <v>471.2965747794429</v>
+        <v>232.05741388425</v>
       </c>
       <c r="E28" t="n">
-        <v>383.20621615067</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="F28" t="n">
-        <v>211.3444419252304</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="G28" t="n">
-        <v>46.04709042516417</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="H28" t="n">
-        <v>46.04709042516417</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="I28" t="n">
         <v>46.04709042516417</v>
       </c>
       <c r="J28" t="n">
-        <v>92.11159350206117</v>
+        <v>92.11159350206118</v>
       </c>
       <c r="K28" t="n">
-        <v>180.6281187534837</v>
+        <v>427.9107278675057</v>
       </c>
       <c r="L28" t="n">
-        <v>607.9766976473911</v>
+        <v>922.4299907340877</v>
       </c>
       <c r="M28" t="n">
-        <v>1146.593560400984</v>
+        <v>1458.19910559486</v>
       </c>
       <c r="N28" t="n">
-        <v>1668.010557793113</v>
+        <v>1581.583180145109</v>
       </c>
       <c r="O28" t="n">
-        <v>2156.377168285519</v>
+        <v>1692.247466334312</v>
       </c>
       <c r="P28" t="n">
-        <v>2247.972012657228</v>
+        <v>2096.598515279329</v>
       </c>
       <c r="Q28" t="n">
         <v>2302.354521258208</v>
@@ -6414,22 +6414,22 @@
         <v>2302.354521258208</v>
       </c>
       <c r="T28" t="n">
-        <v>2302.354521258208</v>
+        <v>2063.115360363015</v>
       </c>
       <c r="U28" t="n">
-        <v>2022.222415569733</v>
+        <v>1782.98325467454</v>
       </c>
       <c r="V28" t="n">
-        <v>1740.510948177762</v>
+        <v>1501.271787282569</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.658544350275</v>
+        <v>1226.419383455082</v>
       </c>
       <c r="X28" t="n">
-        <v>1223.09464779608</v>
+        <v>983.8554869008868</v>
       </c>
       <c r="Y28" t="n">
-        <v>996.751879485822</v>
+        <v>757.5127185906289</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1209.990219812152</v>
+        <v>1421.55098673196</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.990219812152</v>
+        <v>994.6502567452605</v>
       </c>
       <c r="D29" t="n">
-        <v>786.6975989971522</v>
+        <v>571.3576359302608</v>
       </c>
       <c r="E29" t="n">
-        <v>360.7206591450098</v>
+        <v>145.3806960781184</v>
       </c>
       <c r="F29" t="n">
-        <v>360.7206591450098</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G29" t="n">
-        <v>46.04709042516415</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="H29" t="n">
-        <v>46.04709042516415</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I29" t="n">
         <v>92.67892826359139</v>
       </c>
       <c r="J29" t="n">
-        <v>241.5106779985539</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K29" t="n">
-        <v>472.8158994151627</v>
+        <v>472.8158994151629</v>
       </c>
       <c r="L29" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911688</v>
       </c>
       <c r="M29" t="n">
-        <v>1096.877863037623</v>
+        <v>1096.877863037624</v>
       </c>
       <c r="N29" t="n">
-        <v>1434.096173311729</v>
+        <v>1434.09617331173</v>
       </c>
       <c r="O29" t="n">
         <v>1750.354881365387</v>
@@ -6484,31 +6484,31 @@
         <v>2014.667959145796</v>
       </c>
       <c r="Q29" t="n">
-        <v>2205.328001648711</v>
+        <v>2205.328001648712</v>
       </c>
       <c r="R29" t="n">
         <v>2302.354521258208</v>
       </c>
       <c r="S29" t="n">
-        <v>2246.736621068599</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="T29" t="n">
-        <v>2035.175854148792</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="U29" t="n">
-        <v>2035.175854148792</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="V29" t="n">
-        <v>2035.175854148792</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="W29" t="n">
-        <v>2035.175854148792</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="X29" t="n">
-        <v>2035.175854148792</v>
+        <v>2246.7366210686</v>
       </c>
       <c r="Y29" t="n">
-        <v>1629.838584103682</v>
+        <v>1841.39935102349</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>600.9712498415972</v>
+        <v>600.9712498415973</v>
       </c>
       <c r="C30" t="n">
-        <v>483.465346359102</v>
+        <v>483.4653463591021</v>
       </c>
       <c r="D30" t="n">
         <v>379.6253878743871</v>
@@ -6530,40 +6530,40 @@
         <v>274.9234541473243</v>
       </c>
       <c r="F30" t="n">
-        <v>181.2776238302284</v>
+        <v>181.2776238302285</v>
       </c>
       <c r="G30" t="n">
-        <v>88.36848069319255</v>
+        <v>88.36848069319257</v>
       </c>
       <c r="H30" t="n">
-        <v>46.04709042516415</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I30" t="n">
-        <v>92.11885050217182</v>
+        <v>68.66154465776</v>
       </c>
       <c r="J30" t="n">
-        <v>177.7041209142456</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K30" t="n">
-        <v>336.6831388875875</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L30" t="n">
-        <v>557.9774607198402</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M30" t="n">
-        <v>819.3629875972324</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N30" t="n">
-        <v>1090.008016392969</v>
+        <v>1213.037108037032</v>
       </c>
       <c r="O30" t="n">
-        <v>1333.984626223077</v>
+        <v>1457.013717867141</v>
       </c>
       <c r="P30" t="n">
-        <v>1526.655741705079</v>
+        <v>1649.684833349143</v>
       </c>
       <c r="Q30" t="n">
-        <v>1664.913001912002</v>
+        <v>1770.368502196907</v>
       </c>
       <c r="R30" t="n">
         <v>1816.58545312808</v>
@@ -6578,16 +6578,16 @@
         <v>1434.563010169221</v>
       </c>
       <c r="V30" t="n">
-        <v>1229.589871308487</v>
+        <v>1229.589871308488</v>
       </c>
       <c r="W30" t="n">
         <v>1033.068494141705</v>
       </c>
       <c r="X30" t="n">
-        <v>869.5911479083676</v>
+        <v>869.5911479083677</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.89825926166</v>
+        <v>729.8982592616601</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7988289250884</v>
+        <v>838.3084644423184</v>
       </c>
       <c r="C31" t="n">
-        <v>789.7988289250884</v>
+        <v>666.3359013212344</v>
       </c>
       <c r="D31" t="n">
-        <v>684.6788122607873</v>
+        <v>503.0191284480051</v>
       </c>
       <c r="E31" t="n">
-        <v>518.4706064136408</v>
+        <v>336.8109226008586</v>
       </c>
       <c r="F31" t="n">
-        <v>346.6088321882012</v>
+        <v>282.2546735989444</v>
       </c>
       <c r="G31" t="n">
-        <v>181.311480688135</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="H31" t="n">
-        <v>46.04709042516415</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="I31" t="n">
-        <v>46.04709042516415</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="J31" t="n">
-        <v>170.033310150282</v>
+        <v>92.11159350206118</v>
       </c>
       <c r="K31" t="n">
-        <v>505.8324445157266</v>
+        <v>180.6281187534837</v>
       </c>
       <c r="L31" t="n">
-        <v>623.9628137911436</v>
+        <v>607.9766976473911</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.579676544736</v>
+        <v>1146.593560400984</v>
       </c>
       <c r="N31" t="n">
-        <v>1581.583180145108</v>
+        <v>1668.010557793113</v>
       </c>
       <c r="O31" t="n">
-        <v>1692.247466334311</v>
+        <v>2156.377168285519</v>
       </c>
       <c r="P31" t="n">
-        <v>2096.598515279328</v>
+        <v>2247.972012657228</v>
       </c>
       <c r="Q31" t="n">
         <v>2302.354521258208</v>
       </c>
       <c r="R31" t="n">
-        <v>2298.463831994476</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.463831994476</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="T31" t="n">
-        <v>2059.224671099283</v>
+        <v>2059.224671099284</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.092565410807</v>
+        <v>1779.092565410808</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.381098018836</v>
+        <v>1497.381098018837</v>
       </c>
       <c r="W31" t="n">
-        <v>1222.528694191349</v>
+        <v>1497.381098018837</v>
       </c>
       <c r="X31" t="n">
-        <v>979.964797637154</v>
+        <v>1254.817201464642</v>
       </c>
       <c r="Y31" t="n">
-        <v>979.964797637154</v>
+        <v>1028.474433154384</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>471.171272235764</v>
+        <v>472.0240302773066</v>
       </c>
       <c r="C32" t="n">
-        <v>471.171272235764</v>
+        <v>472.0240302773066</v>
       </c>
       <c r="D32" t="n">
-        <v>471.171272235764</v>
+        <v>472.0240302773066</v>
       </c>
       <c r="E32" t="n">
-        <v>471.171272235764</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="F32" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="G32" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="H32" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="I32" t="n">
-        <v>92.67892826359139</v>
+        <v>92.6789282635915</v>
       </c>
       <c r="J32" t="n">
-        <v>241.5106779985539</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K32" t="n">
-        <v>472.8158994151627</v>
+        <v>472.8158994151629</v>
       </c>
       <c r="L32" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911686</v>
       </c>
       <c r="M32" t="n">
-        <v>1096.877863037623</v>
+        <v>1096.877863037624</v>
       </c>
       <c r="N32" t="n">
         <v>1434.096173311729</v>
@@ -6721,7 +6721,7 @@
         <v>2014.667959145796</v>
       </c>
       <c r="Q32" t="n">
-        <v>2205.328001648712</v>
+        <v>2205.328001648711</v>
       </c>
       <c r="R32" t="n">
         <v>2302.354521258208</v>
@@ -6730,22 +6730,22 @@
         <v>2246.7366210686</v>
       </c>
       <c r="T32" t="n">
-        <v>2035.175854148793</v>
+        <v>2035.175854148792</v>
       </c>
       <c r="U32" t="n">
-        <v>1776.992089079379</v>
+        <v>1776.992089079378</v>
       </c>
       <c r="V32" t="n">
-        <v>1419.502674205628</v>
+        <v>1685.472648854322</v>
       </c>
       <c r="W32" t="n">
-        <v>1023.111324505975</v>
+        <v>1289.081299154669</v>
       </c>
       <c r="X32" t="n">
-        <v>611.3913256737221</v>
+        <v>877.3613003224164</v>
       </c>
       <c r="Y32" t="n">
-        <v>611.3913256737221</v>
+        <v>472.0240302773066</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>88.36848069319257</v>
       </c>
       <c r="H33" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="I33" t="n">
         <v>68.66154465776</v>
       </c>
       <c r="J33" t="n">
-        <v>300.7332125583092</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K33" t="n">
-        <v>459.712230531651</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L33" t="n">
-        <v>681.0065523639038</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M33" t="n">
-        <v>942.392079241296</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N33" t="n">
         <v>1213.037108037032</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>649.2837022139781</v>
+        <v>567.3467498785628</v>
       </c>
       <c r="C34" t="n">
-        <v>477.3111390928941</v>
+        <v>395.3741867574788</v>
       </c>
       <c r="D34" t="n">
-        <v>477.3111390928941</v>
+        <v>395.3741867574788</v>
       </c>
       <c r="E34" t="n">
-        <v>311.1029332457476</v>
+        <v>288.8190963243177</v>
       </c>
       <c r="F34" t="n">
-        <v>311.1029332457476</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="G34" t="n">
-        <v>145.8055817456814</v>
+        <v>116.9573220988781</v>
       </c>
       <c r="H34" t="n">
         <v>116.9573220988781</v>
       </c>
       <c r="I34" t="n">
-        <v>46.04709042516417</v>
+        <v>46.04709042516416</v>
       </c>
       <c r="J34" t="n">
-        <v>170.033310150282</v>
+        <v>92.11159350206117</v>
       </c>
       <c r="K34" t="n">
-        <v>258.5498354017045</v>
+        <v>214.2367106703226</v>
       </c>
       <c r="L34" t="n">
-        <v>607.9766976473911</v>
+        <v>708.7559735369045</v>
       </c>
       <c r="M34" t="n">
-        <v>1146.593560400984</v>
+        <v>833.8373558276755</v>
       </c>
       <c r="N34" t="n">
-        <v>1668.010557793113</v>
+        <v>1355.254353219805</v>
       </c>
       <c r="O34" t="n">
-        <v>2156.377168285519</v>
+        <v>1843.620963712211</v>
       </c>
       <c r="P34" t="n">
-        <v>2247.972012657228</v>
+        <v>2247.972012657227</v>
       </c>
       <c r="Q34" t="n">
         <v>2302.354521258208</v>
       </c>
       <c r="R34" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="S34" t="n">
-        <v>2145.05231269843</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="T34" t="n">
-        <v>2145.05231269843</v>
+        <v>2063.115360363015</v>
       </c>
       <c r="U34" t="n">
-        <v>1864.920207009955</v>
+        <v>1782.983254674539</v>
       </c>
       <c r="V34" t="n">
-        <v>1583.208739617984</v>
+        <v>1501.271787282568</v>
       </c>
       <c r="W34" t="n">
-        <v>1308.356335790497</v>
+        <v>1226.419383455081</v>
       </c>
       <c r="X34" t="n">
-        <v>1065.792439236302</v>
+        <v>983.8554869008864</v>
       </c>
       <c r="Y34" t="n">
-        <v>839.4496709260438</v>
+        <v>757.5127185906284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1081.135857662944</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="C35" t="n">
-        <v>1081.135857662944</v>
+        <v>1875.453791271509</v>
       </c>
       <c r="D35" t="n">
-        <v>724.2060782800736</v>
+        <v>1575.307199942816</v>
       </c>
       <c r="E35" t="n">
-        <v>724.2060782800736</v>
+        <v>1149.330260090673</v>
       </c>
       <c r="F35" t="n">
         <v>724.2060782800736</v>
@@ -6937,19 +6937,19 @@
         <v>92.67892826359139</v>
       </c>
       <c r="J35" t="n">
-        <v>241.5106779985539</v>
+        <v>241.510677998554</v>
       </c>
       <c r="K35" t="n">
-        <v>472.8158994151627</v>
+        <v>472.8158994151629</v>
       </c>
       <c r="L35" t="n">
-        <v>765.7670162911685</v>
+        <v>765.7670162911688</v>
       </c>
       <c r="M35" t="n">
-        <v>1096.877863037623</v>
+        <v>1096.877863037624</v>
       </c>
       <c r="N35" t="n">
-        <v>1434.096173311729</v>
+        <v>1434.09617331173</v>
       </c>
       <c r="O35" t="n">
         <v>1750.354881365387</v>
@@ -6964,25 +6964,25 @@
         <v>2302.354521258208</v>
       </c>
       <c r="S35" t="n">
-        <v>2246.7366210686</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="T35" t="n">
-        <v>2246.7366210686</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="U35" t="n">
-        <v>2246.7366210686</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="V35" t="n">
-        <v>1889.247206194849</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="W35" t="n">
-        <v>1492.855856495196</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="X35" t="n">
-        <v>1081.135857662944</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="Y35" t="n">
-        <v>1081.135857662944</v>
+        <v>2302.354521258208</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>46.04709042516417</v>
       </c>
       <c r="I36" t="n">
-        <v>92.11885050217185</v>
+        <v>68.66154465776</v>
       </c>
       <c r="J36" t="n">
-        <v>177.7041209142457</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K36" t="n">
-        <v>336.6831388875875</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L36" t="n">
-        <v>557.9774607198402</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M36" t="n">
-        <v>819.3629875972324</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N36" t="n">
-        <v>1090.008016392969</v>
+        <v>1213.037108037032</v>
       </c>
       <c r="O36" t="n">
-        <v>1351.558217582235</v>
+        <v>1457.013717867141</v>
       </c>
       <c r="P36" t="n">
-        <v>1544.229333064237</v>
+        <v>1649.684833349143</v>
       </c>
       <c r="Q36" t="n">
-        <v>1664.913001912002</v>
+        <v>1770.368502196907</v>
       </c>
       <c r="R36" t="n">
         <v>1816.58545312808</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.5532783411087</v>
+        <v>1090.878379928814</v>
       </c>
       <c r="C37" t="n">
-        <v>826.5532783411087</v>
+        <v>918.9058168077305</v>
       </c>
       <c r="D37" t="n">
         <v>755.5890439345012</v>
@@ -7095,25 +7095,25 @@
         <v>46.04709042516417</v>
       </c>
       <c r="J37" t="n">
-        <v>92.11159350206117</v>
+        <v>92.11159350206118</v>
       </c>
       <c r="K37" t="n">
-        <v>427.9107278675057</v>
+        <v>180.6281187534837</v>
       </c>
       <c r="L37" t="n">
-        <v>919.5822428412675</v>
+        <v>675.1473816200657</v>
       </c>
       <c r="M37" t="n">
-        <v>1458.19910559486</v>
+        <v>1213.764244373659</v>
       </c>
       <c r="N37" t="n">
-        <v>1581.583180145109</v>
+        <v>1735.181241765788</v>
       </c>
       <c r="O37" t="n">
-        <v>1692.247466334312</v>
+        <v>2156.377168285519</v>
       </c>
       <c r="P37" t="n">
-        <v>2096.598515279329</v>
+        <v>2247.972012657228</v>
       </c>
       <c r="Q37" t="n">
         <v>2302.354521258208</v>
@@ -7122,25 +7122,25 @@
         <v>2298.463831994477</v>
       </c>
       <c r="S37" t="n">
-        <v>2145.05231269843</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="T37" t="n">
-        <v>1905.813151803237</v>
+        <v>2298.463831994477</v>
       </c>
       <c r="U37" t="n">
-        <v>1625.681046114762</v>
+        <v>2018.331726306001</v>
       </c>
       <c r="V37" t="n">
-        <v>1343.969578722791</v>
+        <v>2018.331726306001</v>
       </c>
       <c r="W37" t="n">
-        <v>1069.117174895304</v>
+        <v>1743.479322478514</v>
       </c>
       <c r="X37" t="n">
-        <v>826.5532783411087</v>
+        <v>1507.387116951138</v>
       </c>
       <c r="Y37" t="n">
-        <v>826.5532783411087</v>
+        <v>1281.04434864088</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1172.199670848391</v>
+        <v>1321.364623037464</v>
       </c>
       <c r="C38" t="n">
-        <v>745.2989408616916</v>
+        <v>894.4638930507638</v>
       </c>
       <c r="D38" t="n">
-        <v>322.0063200466918</v>
+        <v>471.171272235764</v>
       </c>
       <c r="E38" t="n">
-        <v>322.0063200466918</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F38" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G38" t="n">
-        <v>322.0063200466918</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="H38" t="n">
         <v>46.04709042516417</v>
       </c>
       <c r="I38" t="n">
-        <v>92.67892826359162</v>
+        <v>92.6789282635915</v>
       </c>
       <c r="J38" t="n">
-        <v>241.510677998554</v>
+        <v>241.5106779985541</v>
       </c>
       <c r="K38" t="n">
-        <v>472.8158994151629</v>
+        <v>472.8158994151628</v>
       </c>
       <c r="L38" t="n">
         <v>765.7670162911687</v>
@@ -7219,7 +7219,7 @@
         <v>1835.016622236347</v>
       </c>
       <c r="Y38" t="n">
-        <v>1592.048035139921</v>
+        <v>1741.212987328994</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>68.66154465776</v>
       </c>
       <c r="J39" t="n">
-        <v>154.2468150698338</v>
+        <v>300.7332125583088</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2258330431756</v>
+        <v>459.7122305316506</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5201548754284</v>
+        <v>681.0065523639034</v>
       </c>
       <c r="M39" t="n">
-        <v>795.9056817528206</v>
+        <v>942.3920792412957</v>
       </c>
       <c r="N39" t="n">
-        <v>1066.550710548557</v>
+        <v>1213.037108037032</v>
       </c>
       <c r="O39" t="n">
-        <v>1310.527320378665</v>
+        <v>1457.013717867141</v>
       </c>
       <c r="P39" t="n">
-        <v>1503.198435860667</v>
+        <v>1649.684833349143</v>
       </c>
       <c r="Q39" t="n">
         <v>1770.368502196907</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.878379928814</v>
+        <v>931.3515309641989</v>
       </c>
       <c r="C40" t="n">
-        <v>918.9058168077305</v>
+        <v>847.9955851340166</v>
       </c>
       <c r="D40" t="n">
-        <v>755.5890439345012</v>
+        <v>684.6788122607873</v>
       </c>
       <c r="E40" t="n">
-        <v>589.3808380873547</v>
+        <v>518.4706064136408</v>
       </c>
       <c r="F40" t="n">
-        <v>417.5190638619151</v>
+        <v>346.6088321882012</v>
       </c>
       <c r="G40" t="n">
-        <v>252.2217123618489</v>
+        <v>181.311480688135</v>
       </c>
       <c r="H40" t="n">
-        <v>116.9573220988781</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I40" t="n">
         <v>46.04709042516417</v>
@@ -7341,16 +7341,16 @@
         <v>1000.351707382309</v>
       </c>
       <c r="M40" t="n">
-        <v>1125.43308967308</v>
+        <v>1538.968570135901</v>
       </c>
       <c r="N40" t="n">
-        <v>1355.254353219805</v>
+        <v>1894.339384718417</v>
       </c>
       <c r="O40" t="n">
-        <v>1843.620963712211</v>
+        <v>2005.00367090762</v>
       </c>
       <c r="P40" t="n">
-        <v>2247.972012657228</v>
+        <v>2096.598515279329</v>
       </c>
       <c r="Q40" t="n">
         <v>2302.354521258208</v>
@@ -7368,16 +7368,16 @@
         <v>1629.571735378494</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.571735378494</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="W40" t="n">
-        <v>1507.387116951138</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="X40" t="n">
-        <v>1507.387116951138</v>
+        <v>1347.860267986523</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.04434864088</v>
+        <v>1121.517499676265</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1841.39935102349</v>
+        <v>898.0720022224639</v>
       </c>
       <c r="C41" t="n">
-        <v>1414.498621036791</v>
+        <v>471.171272235764</v>
       </c>
       <c r="D41" t="n">
-        <v>991.2060002217909</v>
+        <v>471.171272235764</v>
       </c>
       <c r="E41" t="n">
-        <v>565.2290603696484</v>
+        <v>471.171272235764</v>
       </c>
       <c r="F41" t="n">
-        <v>140.1048785590486</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="G41" t="n">
         <v>46.04709042516417</v>
@@ -7408,16 +7408,16 @@
         <v>46.04709042516417</v>
       </c>
       <c r="I41" t="n">
-        <v>92.67892826359184</v>
+        <v>92.67892826359224</v>
       </c>
       <c r="J41" t="n">
-        <v>241.5106779985545</v>
+        <v>241.5106779985547</v>
       </c>
       <c r="K41" t="n">
-        <v>472.8158994151634</v>
+        <v>472.8158994151635</v>
       </c>
       <c r="L41" t="n">
-        <v>765.7670162911689</v>
+        <v>765.7670162911693</v>
       </c>
       <c r="M41" t="n">
         <v>1096.877863037624</v>
@@ -7441,22 +7441,22 @@
         <v>2246.7366210686</v>
       </c>
       <c r="T41" t="n">
-        <v>2246.7366210686</v>
+        <v>2035.175854148793</v>
       </c>
       <c r="U41" t="n">
-        <v>2246.7366210686</v>
+        <v>1776.992089079379</v>
       </c>
       <c r="V41" t="n">
-        <v>2246.7366210686</v>
+        <v>1419.502674205628</v>
       </c>
       <c r="W41" t="n">
-        <v>2246.7366210686</v>
+        <v>1023.111324505975</v>
       </c>
       <c r="X41" t="n">
-        <v>2246.7366210686</v>
+        <v>898.0720022224639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1841.39935102349</v>
+        <v>898.0720022224639</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>68.66154465776</v>
       </c>
       <c r="J42" t="n">
-        <v>195.2777122734034</v>
+        <v>300.7332125583092</v>
       </c>
       <c r="K42" t="n">
-        <v>354.2567302467452</v>
+        <v>459.712230531651</v>
       </c>
       <c r="L42" t="n">
-        <v>575.5510520789979</v>
+        <v>681.0065523639038</v>
       </c>
       <c r="M42" t="n">
-        <v>836.9365789563901</v>
+        <v>942.392079241296</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.581607752126</v>
+        <v>1213.037108037032</v>
       </c>
       <c r="O42" t="n">
-        <v>1351.558217582235</v>
+        <v>1457.013717867141</v>
       </c>
       <c r="P42" t="n">
-        <v>1544.229333064237</v>
+        <v>1649.684833349143</v>
       </c>
       <c r="Q42" t="n">
-        <v>1664.913001912002</v>
+        <v>1770.368502196907</v>
       </c>
       <c r="R42" t="n">
         <v>1816.58545312808</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.878379928814</v>
+        <v>691.354023881805</v>
       </c>
       <c r="C43" t="n">
-        <v>918.9058168077305</v>
+        <v>519.381460760721</v>
       </c>
       <c r="D43" t="n">
-        <v>755.5890439345012</v>
+        <v>519.381460760721</v>
       </c>
       <c r="E43" t="n">
-        <v>589.3808380873547</v>
+        <v>353.1732549135745</v>
       </c>
       <c r="F43" t="n">
-        <v>417.5190638619151</v>
+        <v>181.311480688135</v>
       </c>
       <c r="G43" t="n">
-        <v>252.2217123618489</v>
+        <v>181.311480688135</v>
       </c>
       <c r="H43" t="n">
-        <v>116.9573220988781</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I43" t="n">
         <v>46.04709042516417</v>
@@ -7572,49 +7572,49 @@
         <v>170.033310150282</v>
       </c>
       <c r="K43" t="n">
-        <v>258.5498354017045</v>
+        <v>505.8324445157266</v>
       </c>
       <c r="L43" t="n">
-        <v>753.0690982682864</v>
+        <v>1000.351707382309</v>
       </c>
       <c r="M43" t="n">
-        <v>1291.685961021879</v>
+        <v>1125.43308967308</v>
       </c>
       <c r="N43" t="n">
-        <v>1581.583180145109</v>
+        <v>1248.817164223329</v>
       </c>
       <c r="O43" t="n">
-        <v>1692.247466334312</v>
+        <v>1737.183774715734</v>
       </c>
       <c r="P43" t="n">
-        <v>2096.598515279329</v>
+        <v>2141.534823660751</v>
       </c>
       <c r="Q43" t="n">
         <v>2302.354521258208</v>
       </c>
       <c r="R43" t="n">
-        <v>2298.463831994477</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="S43" t="n">
-        <v>2145.05231269843</v>
+        <v>2302.354521258208</v>
       </c>
       <c r="T43" t="n">
-        <v>2145.05231269843</v>
+        <v>2063.115360363015</v>
       </c>
       <c r="U43" t="n">
-        <v>1864.920207009955</v>
+        <v>1782.98325467454</v>
       </c>
       <c r="V43" t="n">
-        <v>1864.920207009955</v>
+        <v>1625.27906128581</v>
       </c>
       <c r="W43" t="n">
-        <v>1749.951013505333</v>
+        <v>1350.426657458323</v>
       </c>
       <c r="X43" t="n">
-        <v>1507.387116951138</v>
+        <v>1107.862760904129</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.04434864088</v>
+        <v>881.5199925938707</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1438.625272536694</v>
+        <v>1151.106808266773</v>
       </c>
       <c r="C44" t="n">
-        <v>1011.724542549994</v>
+        <v>724.2060782800736</v>
       </c>
       <c r="D44" t="n">
-        <v>1011.724542549994</v>
+        <v>724.2060782800736</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3710304691458</v>
+        <v>724.2060782800736</v>
       </c>
       <c r="F44" t="n">
-        <v>448.246848658546</v>
+        <v>724.2060782800736</v>
       </c>
       <c r="G44" t="n">
-        <v>46.04709042516416</v>
+        <v>322.0063200466918</v>
       </c>
       <c r="H44" t="n">
-        <v>46.04709042516416</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I44" t="n">
         <v>92.6789282635915</v>
@@ -7669,7 +7669,7 @@
         <v>2014.667959145796</v>
       </c>
       <c r="Q44" t="n">
-        <v>2205.328001648711</v>
+        <v>2205.328001648712</v>
       </c>
       <c r="R44" t="n">
         <v>2302.354521258208</v>
@@ -7678,22 +7678,22 @@
         <v>2246.7366210686</v>
       </c>
       <c r="T44" t="n">
-        <v>2246.7366210686</v>
+        <v>2035.175854148793</v>
       </c>
       <c r="U44" t="n">
-        <v>2246.7366210686</v>
+        <v>2035.175854148793</v>
       </c>
       <c r="V44" t="n">
-        <v>2246.7366210686</v>
+        <v>1677.686439275042</v>
       </c>
       <c r="W44" t="n">
-        <v>1850.345271368946</v>
+        <v>1281.295089575389</v>
       </c>
       <c r="X44" t="n">
-        <v>1438.625272536694</v>
+        <v>1281.295089575389</v>
       </c>
       <c r="Y44" t="n">
-        <v>1438.625272536694</v>
+        <v>1151.106808266773</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>88.36848069319257</v>
       </c>
       <c r="H45" t="n">
-        <v>46.04709042516416</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="I45" t="n">
         <v>68.66154465776</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>567.3467498785628</v>
+        <v>934.8858588696812</v>
       </c>
       <c r="C46" t="n">
-        <v>395.3741867574788</v>
+        <v>783.6414265447597</v>
       </c>
       <c r="D46" t="n">
-        <v>232.0574138842495</v>
+        <v>620.3246536715304</v>
       </c>
       <c r="E46" t="n">
-        <v>232.0574138842495</v>
+        <v>454.116447824384</v>
       </c>
       <c r="F46" t="n">
-        <v>232.0574138842495</v>
+        <v>282.2546735989444</v>
       </c>
       <c r="G46" t="n">
         <v>116.9573220988781</v>
@@ -7803,7 +7803,7 @@
         <v>116.9573220988781</v>
       </c>
       <c r="I46" t="n">
-        <v>46.04709042516416</v>
+        <v>46.04709042516417</v>
       </c>
       <c r="J46" t="n">
         <v>170.033310150282</v>
@@ -7812,19 +7812,19 @@
         <v>505.8324445157266</v>
       </c>
       <c r="L46" t="n">
-        <v>623.9628137911436</v>
+        <v>955.4153990008863</v>
       </c>
       <c r="M46" t="n">
-        <v>1162.579676544736</v>
+        <v>1080.496781291657</v>
       </c>
       <c r="N46" t="n">
-        <v>1683.996673936866</v>
+        <v>1203.880855841906</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.003670907619</v>
+        <v>1692.247466334312</v>
       </c>
       <c r="P46" t="n">
-        <v>2096.598515279328</v>
+        <v>2096.598515279329</v>
       </c>
       <c r="Q46" t="n">
         <v>2302.354521258208</v>
@@ -7833,25 +7833,25 @@
         <v>2302.354521258208</v>
       </c>
       <c r="S46" t="n">
-        <v>2302.354521258208</v>
+        <v>2148.943001962162</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.115360363015</v>
+        <v>2148.943001962162</v>
       </c>
       <c r="U46" t="n">
-        <v>1782.983254674539</v>
+        <v>1868.810896273687</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.271787282568</v>
+        <v>1868.810896273687</v>
       </c>
       <c r="W46" t="n">
-        <v>1226.419383455081</v>
+        <v>1593.9584924462</v>
       </c>
       <c r="X46" t="n">
-        <v>983.8554869008864</v>
+        <v>1351.394595892005</v>
       </c>
       <c r="Y46" t="n">
-        <v>757.5127185906284</v>
+        <v>1125.051827581747</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K2" t="n">
-        <v>9.188120483615116</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L2" t="n">
         <v>5.341568553442613</v>
@@ -7996,7 +7996,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P2" t="n">
-        <v>7.531191812490523</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q2" t="n">
         <v>13.562754156455</v>
@@ -8078,7 +8078,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.477581017613943</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R3" t="n">
         <v>16.73234637554063</v>
@@ -8139,7 +8139,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K4" t="n">
-        <v>10.07631485409216</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L4" t="n">
         <v>7.985433933586291</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.33477671814256</v>
+        <v>12.07614829188452</v>
       </c>
       <c r="K5" t="n">
         <v>8.659599926410685</v>
@@ -8224,22 +8224,22 @@
         <v>4.685892067245952</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01569155241409703</v>
+        <v>0.7570631261560621</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.488812484839848</v>
+        <v>2.200229651561935</v>
       </c>
       <c r="P5" t="n">
-        <v>7.675081654941597</v>
+        <v>6.933710081199632</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.85544183273475</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R5" t="n">
-        <v>22.35897023222267</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.87911890286131</v>
+        <v>14.62049047660328</v>
       </c>
       <c r="K7" t="n">
         <v>9.859780864477683</v>
@@ -8391,7 +8391,7 @@
         <v>9.700544058740652</v>
       </c>
       <c r="P7" t="n">
-        <v>11.56198144785761</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q7" t="n">
         <v>16.61588587736505</v>
@@ -8455,13 +8455,13 @@
         <v>7.415995117306384</v>
       </c>
       <c r="K8" t="n">
-        <v>2.786362146091513</v>
+        <v>11.7662998017045</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6143503109632658</v>
+        <v>0.6143503109632675</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R8" t="n">
-        <v>27.72714562344173</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>12.41484263875958</v>
       </c>
       <c r="K10" t="n">
-        <v>16.43346281027709</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L10" t="n">
-        <v>13.60910376882005</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M10" t="n">
         <v>13.32592508338676</v>
@@ -8625,13 +8625,13 @@
         <v>2.952904146645743</v>
       </c>
       <c r="O10" t="n">
-        <v>6.061704061331429</v>
+        <v>15.04164171694442</v>
       </c>
       <c r="P10" t="n">
-        <v>8.315693914541322</v>
+        <v>16.93280580629116</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.49872379860684</v>
+        <v>23.86154956246998</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.360890261673092</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.0675224703017</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,19 +8853,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>361.2602403819761</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5866010684578953</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>113.8815976201631</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7.360890261672523</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>358.0675224703017</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362449</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>276.956209526231</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>164.3028390962585</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.37539003541775</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541895</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,19 +9327,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N19" t="n">
-        <v>191.9820560655049</v>
+        <v>159.7544724379497</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541738</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9564,13 +9564,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>164.3028390962584</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479649</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779359</v>
+        <v>6.85194983401135</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>147.966058069167</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>107.5123121176533</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>107.5123121176534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>147.9660580691671</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>312.341625877263</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>414.8360935050521</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.75110238298763</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>312.341625877263</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>298.6054838890131</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>147.9660580691671</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>33.94807264327157</v>
       </c>
       <c r="L34" t="n">
-        <v>233.6328211820905</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>17.75110238298751</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>377.3142885841867</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>313.6683235661905</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>147.9660580691666</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.9660580691671</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10989,19 +10989,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>107.5123121176533</v>
+        <v>234.3300404366329</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.44535071067632</v>
+        <v>147.9660580691671</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.1950955282636</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>107.5123121176534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>334.8005911209523</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>212.4673846278293</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08674335225113589</v>
+        <v>0.08674335225111918</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>21.89035111309089</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.06417037146909</v>
+        <v>21.14675881038469</v>
       </c>
       <c r="F5" t="n">
         <v>20.13156841875178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08258843891560583</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>6.861427270188237</v>
       </c>
       <c r="Y5" t="n">
         <v>0.5425257709165905</v>
@@ -23023,7 +23023,7 @@
         <v>6.66994299300174</v>
       </c>
       <c r="C8" t="n">
-        <v>14.62895213274472</v>
+        <v>14.66536867987003</v>
       </c>
       <c r="D8" t="n">
         <v>10.0797569512367</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03641654712531528</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>196.1691166451022</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -23317,10 +23317,10 @@
         <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>82.8371125525411</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23424,16 +23424,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>127.5745910284542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
         <v>75.43872475250879</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.76306267971259</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>177.6350202228762</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.8857804163817</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>95.05328701753751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23703,25 +23703,25 @@
         <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>217.4364932038844</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>223.5734463918188</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>319.7413188166403</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.9073711041189</v>
       </c>
       <c r="U19" t="n">
-        <v>41.61949073636578</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>371.7134662535112</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>63.90941067458681</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>77.67669260684914</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.07999395368623</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>136.8983265130944</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H23" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>320.8436559768058</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>292.8046828885678</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.75153474067159</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.20112935697682</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.851782371094693</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>151.8774041030857</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3307846315909</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>74.67415500606728</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>32.18984336479684</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H26" t="n">
         <v>273.1996373253123</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>55.06172118771259</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T26" t="n">
         <v>209.4451592506091</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.60192741872</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>188.2114037168293</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>77.33666874618976</v>
+        <v>50.59703292115685</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H28" t="n">
         <v>133.9117463603411</v>
       </c>
       <c r="I28" t="n">
-        <v>70.20112935697682</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.851782371094693</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S28" t="n">
         <v>151.8774041030857</v>
       </c>
       <c r="T28" t="n">
-        <v>236.846769286241</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>322.5326703960691</v>
       </c>
       <c r="G29" t="n">
-        <v>86.65092761840083</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H29" t="n">
         <v>273.1996373253123</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.4451592506091</v>
       </c>
       <c r="U29" t="n">
         <v>255.60192741872</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.61478864683886</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>116.1324699712901</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.9117463603411</v>
       </c>
       <c r="I31" t="n">
-        <v>70.20112935697682</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>276.8320277450362</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24925,10 +24925,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.177760651048</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>263.3102749022077</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>59.05658425984547</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H34" t="n">
-        <v>105.3519693100058</v>
+        <v>133.9117463603411</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T34" t="n">
-        <v>236.846769286241</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>65.69921301780835</v>
+        <v>121.9145691914437</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>55.06172118771258</v>
       </c>
       <c r="T35" t="n">
         <v>209.4451592506091</v>
@@ -25213,13 +25213,13 @@
         <v>255.60192741872</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>91.42901308195559</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.846769286241</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.406974116550799</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.177760651048</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>273.1996373253123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>160.744996119197</v>
+        <v>308.4182987863785</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>87.73045111799263</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.20112935697681</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.851782371094693</v>
+        <v>3.851782371094679</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>151.14110754613</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>305.0605503985024</v>
+        <v>398.177760651048</v>
       </c>
       <c r="H41" t="n">
         <v>273.1996373253123</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.60192741872</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>283.8138697832543</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.6443779850655</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.20112935697682</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.851782371094693</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.8774041030857</v>
       </c>
       <c r="T43" t="n">
-        <v>236.846769286241</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>122.7672012632092</v>
       </c>
       <c r="W43" t="n">
-        <v>158.2843782196364</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>284.7471934935814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>273.1996373253123</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.4451592506091</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.60192741872</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>272.3974988491291</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>20.52084948820087</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>49.69528711754789</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>133.9117463603411</v>
@@ -26073,16 +26073,16 @@
         <v>3.851782371094693</v>
       </c>
       <c r="S46" t="n">
-        <v>151.8774041030857</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.846769286241</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370920.612573144</v>
+        <v>370920.6125731441</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370920.612573144</v>
+        <v>370920.6125731441</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>370920.6125731441</v>
+        <v>370920.6125731443</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424364.3295936536</v>
+        <v>424364.3295936535</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424364.3295936533</v>
+        <v>424364.3295936535</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>424364.3295936536</v>
+        <v>424364.3295936534</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424364.3295936535</v>
+        <v>424364.3295936533</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424364.3295936536</v>
+        <v>424364.3295936535</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424364.3295936535</v>
+        <v>424364.3295936536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358608.6513224964</v>
+        <v>358608.6513224967</v>
       </c>
       <c r="C2" t="n">
-        <v>358751.994490903</v>
+        <v>358751.9944909032</v>
       </c>
       <c r="D2" t="n">
         <v>360344.9098482333</v>
@@ -26325,13 +26325,13 @@
         <v>192211.6033177297</v>
       </c>
       <c r="F2" t="n">
-        <v>192211.6033177296</v>
+        <v>192211.6033177297</v>
       </c>
       <c r="G2" t="n">
-        <v>192211.6033177296</v>
+        <v>192211.6033177298</v>
       </c>
       <c r="H2" t="n">
-        <v>192211.6033177297</v>
+        <v>192211.6033177298</v>
       </c>
       <c r="I2" t="n">
         <v>223924.4149406533</v>
@@ -26340,7 +26340,7 @@
         <v>223924.4149406533</v>
       </c>
       <c r="K2" t="n">
-        <v>223924.4149406532</v>
+        <v>223924.4149406533</v>
       </c>
       <c r="L2" t="n">
         <v>223924.4149406533</v>
@@ -26352,7 +26352,7 @@
         <v>223924.4149406533</v>
       </c>
       <c r="O2" t="n">
-        <v>223924.4149406534</v>
+        <v>223924.4149406533</v>
       </c>
       <c r="P2" t="n">
         <v>223924.4149406533</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>1180.654180708352</v>
@@ -26374,7 +26374,7 @@
         <v>12395.28159776446</v>
       </c>
       <c r="E3" t="n">
-        <v>426561.1868044926</v>
+        <v>426561.1868044925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105180.6929481349</v>
+        <v>105180.6929481348</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>190.8053191907617</v>
+        <v>190.8053191908202</v>
       </c>
       <c r="L3" t="n">
-        <v>2085.106928226871</v>
+        <v>2085.106928226784</v>
       </c>
       <c r="M3" t="n">
         <v>110764.2347589665</v>
@@ -26426,37 +26426,37 @@
         <v>306432.1365111149</v>
       </c>
       <c r="E4" t="n">
-        <v>25332.93825596527</v>
+        <v>25332.93825596529</v>
       </c>
       <c r="F4" t="n">
         <v>25332.93825596526</v>
       </c>
       <c r="G4" t="n">
-        <v>25332.93825596528</v>
+        <v>25332.93825596527</v>
       </c>
       <c r="H4" t="n">
-        <v>25332.93825596526</v>
+        <v>25332.93825596525</v>
       </c>
       <c r="I4" t="n">
-        <v>21768.29827079978</v>
+        <v>21768.29827079977</v>
       </c>
       <c r="J4" t="n">
-        <v>21768.29827079979</v>
+        <v>21768.29827079977</v>
       </c>
       <c r="K4" t="n">
         <v>21768.29827079977</v>
       </c>
       <c r="L4" t="n">
+        <v>21768.29827079977</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21768.29827079977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21768.29827079977</v>
+      </c>
+      <c r="O4" t="n">
         <v>21768.29827079979</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21768.29827079978</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21768.29827079978</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21768.29827079978</v>
       </c>
       <c r="P4" t="n">
         <v>21768.29827079978</v>
@@ -26478,16 +26478,16 @@
         <v>35579.45655848663</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
         <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304157</v>
       </c>
       <c r="I5" t="n">
         <v>46480.69133260343</v>
@@ -26496,7 +26496,7 @@
         <v>46480.69133260343</v>
       </c>
       <c r="K5" t="n">
-        <v>46480.69133260341</v>
+        <v>46480.69133260343</v>
       </c>
       <c r="L5" t="n">
         <v>46480.69133260343</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35332.89874366744</v>
+        <v>-35354.57080840513</v>
       </c>
       <c r="C6" t="n">
-        <v>13870.66775185745</v>
+        <v>13849.56905979339</v>
       </c>
       <c r="D6" t="n">
-        <v>5938.0351808673</v>
+        <v>5923.30815023226</v>
       </c>
       <c r="E6" t="n">
-        <v>-296631.8225557697</v>
+        <v>-297319.0828125267</v>
       </c>
       <c r="F6" t="n">
-        <v>129929.3642487228</v>
+        <v>129242.1039919659</v>
       </c>
       <c r="G6" t="n">
-        <v>129929.3642487227</v>
+        <v>129242.103991966</v>
       </c>
       <c r="H6" t="n">
-        <v>129929.3642487229</v>
+        <v>129242.103991966</v>
       </c>
       <c r="I6" t="n">
-        <v>50494.7323891152</v>
+        <v>49934.32337884993</v>
       </c>
       <c r="J6" t="n">
-        <v>155675.4253372501</v>
+        <v>155115.0163269848</v>
       </c>
       <c r="K6" t="n">
-        <v>155484.6200180592</v>
+        <v>154924.211007794</v>
       </c>
       <c r="L6" t="n">
-        <v>153590.3184090232</v>
+        <v>153029.9093987581</v>
       </c>
       <c r="M6" t="n">
-        <v>44911.19057828363</v>
+        <v>44350.78156801828</v>
       </c>
       <c r="N6" t="n">
-        <v>155675.4253372501</v>
+        <v>155115.0163269848</v>
       </c>
       <c r="O6" t="n">
-        <v>155675.4253372502</v>
+        <v>155115.0163269848</v>
       </c>
       <c r="P6" t="n">
-        <v>155675.4253372501</v>
+        <v>155115.0163269848</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>64.4897407809798</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.2483758469463</v>
       </c>
       <c r="I3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="J3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="K3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="L3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="M3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="N3" t="n">
-        <v>526.830394930214</v>
+        <v>526.8303949302141</v>
       </c>
       <c r="O3" t="n">
         <v>526.830394930214</v>
@@ -26798,16 +26798,16 @@
         <v>8.979937655612986</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799036</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="I4" t="n">
         <v>575.5886303145521</v>
@@ -26816,10 +26816,10 @@
         <v>575.5886303145521</v>
       </c>
       <c r="K4" t="n">
-        <v>575.5886303145519</v>
+        <v>575.5886303145521</v>
       </c>
       <c r="L4" t="n">
-        <v>575.5886303145521</v>
+        <v>575.588630314552</v>
       </c>
       <c r="M4" t="n">
         <v>575.5886303145521</v>
@@ -26831,7 +26831,7 @@
         <v>575.5886303145521</v>
       </c>
       <c r="P4" t="n">
-        <v>575.588630314552</v>
+        <v>575.5886303145521</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>11.48525808283478</v>
       </c>
       <c r="E3" t="n">
-        <v>365.7586350659664</v>
+        <v>365.7586350659662</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96.58201908326788</v>
+        <v>96.58201908326782</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1365543346486</v>
+        <v>122.1365543346485</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7413715737417306</v>
+        <v>0.7413715737419579</v>
       </c>
       <c r="L4" t="n">
-        <v>8.238566081871227</v>
+        <v>8.238566081870886</v>
       </c>
       <c r="M4" t="n">
         <v>444.4721383242905</v>
@@ -27697,19 +27697,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>115.5894728739283</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>102.1485588177159</v>
       </c>
       <c r="E6" t="n">
-        <v>103.0019143076402</v>
+        <v>102.9135428160502</v>
       </c>
       <c r="F6" t="n">
         <v>91.96800044018292</v>
       </c>
       <c r="G6" t="n">
-        <v>92.99922442254206</v>
+        <v>92.2578528488001</v>
       </c>
       <c r="H6" t="n">
         <v>51.74123918360299</v>
@@ -27760,7 +27760,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>161.1012011972618</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.522937451203</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>169.5114659161312</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>163.804752214933</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.4988181546643</v>
+        <v>163.7574465809224</v>
       </c>
       <c r="H7" t="n">
         <v>141.5084962318651</v>
       </c>
       <c r="I7" t="n">
-        <v>95.89647554818475</v>
+        <v>95.24347546603283</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>42.27051945141948</v>
       </c>
       <c r="S7" t="n">
-        <v>166.7679659678213</v>
+        <v>166.0265943940794</v>
       </c>
       <c r="T7" t="n">
         <v>240.4975591017995</v>
@@ -27839,10 +27839,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>239.485257506501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.3379690534134</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27937,19 +27937,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>93.82162124425483</v>
       </c>
       <c r="E9" t="n">
-        <v>95.74538530272822</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>83.72943435831189</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>83.99458262690185</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H9" t="n">
-        <v>42.52271154404281</v>
+        <v>43.59312011259188</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>139.902022460603</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9113882128454</v>
+        <v>173.9314505572324</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>193.9434698165134</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -28016,13 +28016,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>152.703667488884</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>162.2336273961213</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.4781070335314</v>
@@ -28064,7 +28064,7 @@
         <v>166.4070276113493</v>
       </c>
       <c r="T10" t="n">
-        <v>231.4291284740729</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U10" t="n">
         <v>277.3762607615072</v>
@@ -28073,13 +28073,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>263.1239421335991</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>232.228728501589</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.0994029715424</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -31044,7 +31044,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H2" t="n">
-        <v>2.139688326696483</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I2" t="n">
         <v>8.05471345929122</v>
@@ -31068,7 +31068,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P2" t="n">
-        <v>30.04416999774078</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q2" t="n">
         <v>22.56192044814304</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H3" t="n">
         <v>1.079622901028888</v>
@@ -31150,7 +31150,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.26945727136455</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R3" t="n">
         <v>6.940573018603515</v>
@@ -31202,7 +31202,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I4" t="n">
         <v>2.818358950879063</v>
@@ -31229,13 +31229,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.847613148895721</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R4" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S4" t="n">
-        <v>1.633250939792975</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T4" t="n">
         <v>0.4004318944719343</v>
@@ -31612,10 +31612,10 @@
         <v>30.11853412606043</v>
       </c>
       <c r="M9" t="n">
-        <v>28.37297541757256</v>
+        <v>32.07671816794097</v>
       </c>
       <c r="N9" t="n">
-        <v>30.32296586915465</v>
+        <v>26.61922311878625</v>
       </c>
       <c r="O9" t="n">
         <v>32.1518273778352</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,25 +31773,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,22 +31937,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32247,25 +32247,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L18" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L19" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M19" t="n">
         <v>121.6192253234244</v>
@@ -32411,22 +32411,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S19" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248255</v>
+        <v>17.71369318248256</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J20" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670764</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938981</v>
+        <v>291.4251699938982</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100419</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050279</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651298</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179018</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659501</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600876</v>
+        <v>220.1856947600877</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587202</v>
+        <v>176.7184319587203</v>
       </c>
       <c r="Q21" t="n">
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027711</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654184</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928487</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371161</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677274</v>
       </c>
       <c r="I22" t="n">
-        <v>23.332157824618</v>
+        <v>23.33215782461801</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596675</v>
       </c>
       <c r="L22" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M22" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N22" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701263</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288889</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S22" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.0423195123783882</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H23" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I23" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J23" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K23" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L23" t="n">
         <v>334.2222614992955</v>
@@ -32721,28 +32721,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N23" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O23" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P23" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q23" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R23" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S23" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T23" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K24" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L24" t="n">
         <v>246.0447047266061</v>
@@ -32806,22 +32806,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P24" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q24" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R24" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S24" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T24" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H25" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I25" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J25" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K25" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L25" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M25" t="n">
         <v>148.9202704882242</v>
@@ -32888,19 +32888,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R25" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S25" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T25" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H26" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I26" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J26" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K26" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L26" t="n">
         <v>334.2222614992955</v>
@@ -32958,28 +32958,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N26" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O26" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P26" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q26" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R26" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S26" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T26" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K27" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L27" t="n">
         <v>246.0447047266061</v>
@@ -33043,22 +33043,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P27" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q27" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R27" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S27" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T27" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H28" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I28" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J28" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K28" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L28" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M28" t="n">
         <v>148.9202704882242</v>
@@ -33125,19 +33125,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R28" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S28" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T28" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H29" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I29" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J29" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K29" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L29" t="n">
         <v>334.2222614992955</v>
@@ -33195,28 +33195,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N29" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O29" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P29" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q29" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R29" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S29" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T29" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K30" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L30" t="n">
         <v>246.0447047266061</v>
@@ -33280,22 +33280,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P30" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q30" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R30" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S30" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T30" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H31" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I31" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J31" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K31" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L31" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M31" t="n">
         <v>148.9202704882242</v>
@@ -33362,19 +33362,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R31" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S31" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T31" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H32" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I32" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J32" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K32" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L32" t="n">
         <v>334.2222614992955</v>
@@ -33432,28 +33432,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N32" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O32" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P32" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q32" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R32" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S32" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T32" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K33" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L33" t="n">
         <v>246.0447047266061</v>
@@ -33517,22 +33517,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P33" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q33" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R33" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S33" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T33" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H34" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I34" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J34" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K34" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L34" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M34" t="n">
         <v>148.9202704882242</v>
@@ -33599,19 +33599,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R34" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S34" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T34" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H35" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I35" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J35" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K35" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L35" t="n">
         <v>334.2222614992955</v>
@@ -33669,28 +33669,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N35" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O35" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P35" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q35" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R35" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S35" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T35" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K36" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L36" t="n">
         <v>246.0447047266061</v>
@@ -33754,22 +33754,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P36" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q36" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R36" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S36" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T36" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H37" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I37" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J37" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K37" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L37" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M37" t="n">
         <v>148.9202704882242</v>
@@ -33836,19 +33836,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R37" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S37" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T37" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.117911135397843</v>
+        <v>2.117911135397844</v>
       </c>
       <c r="H38" t="n">
         <v>21.69005741539317</v>
       </c>
       <c r="I38" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742546</v>
       </c>
       <c r="J38" t="n">
         <v>179.7550602279729</v>
       </c>
       <c r="K38" t="n">
-        <v>269.4062385893636</v>
+        <v>269.4062385893637</v>
       </c>
       <c r="L38" t="n">
         <v>334.2222614992955</v>
@@ -33906,28 +33906,28 @@
         <v>371.8866636534269</v>
       </c>
       <c r="N38" t="n">
-        <v>377.904178666876</v>
+        <v>377.9041786668761</v>
       </c>
       <c r="O38" t="n">
         <v>356.8441998142637</v>
       </c>
       <c r="P38" t="n">
-        <v>304.5582686591294</v>
+        <v>304.5582686591295</v>
       </c>
       <c r="Q38" t="n">
-        <v>228.710576122694</v>
+        <v>228.7105761226941</v>
       </c>
       <c r="R38" t="n">
         <v>133.0392353589349</v>
       </c>
       <c r="S38" t="n">
-        <v>48.26189999787841</v>
+        <v>48.26189999787842</v>
       </c>
       <c r="T38" t="n">
-        <v>9.271155995204065</v>
+        <v>9.271155995204067</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1694328908318274</v>
+        <v>0.1694328908318275</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>107.0608824263372</v>
       </c>
       <c r="K39" t="n">
-        <v>182.9841004730725</v>
+        <v>182.9841004730726</v>
       </c>
       <c r="L39" t="n">
         <v>246.0447047266061</v>
@@ -33991,22 +33991,22 @@
         <v>269.6129097526351</v>
       </c>
       <c r="P39" t="n">
-        <v>216.3881295704873</v>
+        <v>216.3881295704874</v>
       </c>
       <c r="Q39" t="n">
         <v>144.6497340948014</v>
       </c>
       <c r="R39" t="n">
-        <v>70.35670821351049</v>
+        <v>70.3567082135105</v>
       </c>
       <c r="S39" t="n">
         <v>21.04836530688165</v>
       </c>
       <c r="T39" t="n">
-        <v>4.567520122083646</v>
+        <v>4.567520122083647</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07455147098069069</v>
+        <v>0.0745514709806907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9500220236446481</v>
+        <v>0.9500220236446483</v>
       </c>
       <c r="H40" t="n">
-        <v>8.446559446586059</v>
+        <v>8.446559446586061</v>
       </c>
       <c r="I40" t="n">
-        <v>28.56975322014997</v>
+        <v>28.56975322014998</v>
       </c>
       <c r="J40" t="n">
-        <v>67.16655707167661</v>
+        <v>67.16655707167662</v>
       </c>
       <c r="K40" t="n">
-        <v>110.3752860198054</v>
+        <v>110.3752860198055</v>
       </c>
       <c r="L40" t="n">
-        <v>141.2423652244052</v>
+        <v>141.2423652244053</v>
       </c>
       <c r="M40" t="n">
         <v>148.9202704882242</v>
@@ -34073,19 +34073,19 @@
         <v>114.9008454778945</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.55138963446231</v>
+        <v>79.55138963446232</v>
       </c>
       <c r="R40" t="n">
-        <v>42.71644480860389</v>
+        <v>42.7164448086039</v>
       </c>
       <c r="S40" t="n">
-        <v>16.55629290297081</v>
+        <v>16.55629290297082</v>
       </c>
       <c r="T40" t="n">
-        <v>4.059185010118041</v>
+        <v>4.059185010118042</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05181938310788995</v>
+        <v>0.05181938310788996</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>21.69005741539317</v>
       </c>
       <c r="I41" t="n">
-        <v>81.65076904742544</v>
+        <v>81.65076904742619</v>
       </c>
       <c r="J41" t="n">
         <v>179.7550602279729</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="N5" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7114171667220875</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>0.7114171667220875</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="L8" t="n">
         <v>2.600378746450325</v>
       </c>
       <c r="M8" t="n">
-        <v>8.706038952871024</v>
+        <v>8.706038952871026</v>
       </c>
       <c r="N8" t="n">
         <v>8.979937655612986</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>7.603447411830871</v>
       </c>
       <c r="M9" t="n">
-        <v>5.276194905244585</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="N9" t="n">
-        <v>8.979937655612986</v>
+        <v>5.276194905244587</v>
       </c>
       <c r="O9" t="n">
         <v>8.979937655612986</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>8.979937655612986</v>
@@ -35345,13 +35345,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>8.617111891749836</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.617111891749836</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>162.3084810155647</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>453.4520759799036</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35570,25 +35570,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365875</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799036</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196763</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799036</v>
+        <v>448.4250159600815</v>
       </c>
       <c r="P13" t="n">
-        <v>72.04226585748401</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>180.7042593634247</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
@@ -35740,7 +35740,7 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>204.3746952995379</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538916</v>
@@ -35749,7 +35749,7 @@
         <v>453.4520759799036</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613295</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
         <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
+        <v>93.43012434365875</v>
+      </c>
+      <c r="M16" t="n">
         <v>453.4520759799036</v>
       </c>
-      <c r="M16" t="n">
-        <v>375.9999949581696</v>
-      </c>
       <c r="N16" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810539</v>
+        <v>251.4676146743639</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q16" t="n">
         <v>40.34794198810393</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35907,7 +35907,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450208</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N19" t="n">
-        <v>289.9605470674725</v>
+        <v>257.7329634399173</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213353</v>
+        <v>184.2523111213354</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326304</v>
       </c>
       <c r="O20" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378741</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164749</v>
+        <v>150.657171816475</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332712</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201447</v>
       </c>
       <c r="J21" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>197.4144057639431</v>
+        <v>197.4144057639427</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972891</v>
+        <v>219.3484664972892</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960193</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36281,25 +36281,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L22" t="n">
-        <v>257.7329634399171</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799035</v>
+        <v>104.830440835979</v>
       </c>
       <c r="O22" t="n">
-        <v>87.16477557810538</v>
+        <v>87.16477557810542</v>
       </c>
       <c r="P22" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902614</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J23" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K23" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L23" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M23" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N23" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O23" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P23" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q23" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R23" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.84288306322811</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J24" t="n">
-        <v>86.44976809300385</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K24" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L24" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M24" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N24" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O24" t="n">
-        <v>246.4410200304128</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P24" t="n">
-        <v>342.5833464348257</v>
+        <v>194.6172883656587</v>
       </c>
       <c r="Q24" t="n">
         <v>121.9026958058229</v>
       </c>
       <c r="R24" t="n">
-        <v>46.68378881936634</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L25" t="n">
-        <v>499.5144069359413</v>
+        <v>499.5144069359414</v>
       </c>
       <c r="M25" t="n">
         <v>126.3448305967384</v>
       </c>
       <c r="N25" t="n">
-        <v>232.1426904512381</v>
+        <v>124.6303783335848</v>
       </c>
       <c r="O25" t="n">
-        <v>493.2996065579858</v>
+        <v>493.2996065579859</v>
       </c>
       <c r="P25" t="n">
         <v>408.4354029747642</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.93182686967737</v>
+        <v>162.4441389873307</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J26" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K26" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L26" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M26" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N26" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O26" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P26" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q26" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R26" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.84288306322811</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J27" t="n">
-        <v>234.4158261621709</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K27" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L27" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M27" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N27" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4410200304128</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P27" t="n">
         <v>194.6172883656587</v>
@@ -36697,7 +36697,7 @@
         <v>121.9026958058229</v>
       </c>
       <c r="R27" t="n">
-        <v>46.68378881936634</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.52980108777474</v>
+        <v>46.52980108777476</v>
       </c>
       <c r="K28" t="n">
-        <v>89.41063156709345</v>
+        <v>339.1910448135804</v>
       </c>
       <c r="L28" t="n">
-        <v>431.6652312059671</v>
+        <v>499.5144069359414</v>
       </c>
       <c r="M28" t="n">
-        <v>544.0574371248413</v>
+        <v>541.1809241017905</v>
       </c>
       <c r="N28" t="n">
-        <v>526.6838357496254</v>
+        <v>124.6303783335848</v>
       </c>
       <c r="O28" t="n">
-        <v>493.2996065579858</v>
+        <v>111.782107261821</v>
       </c>
       <c r="P28" t="n">
-        <v>92.52004481990799</v>
+        <v>408.4354029747642</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.93182686967737</v>
+        <v>207.8343494736158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J29" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K29" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L29" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M29" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N29" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O29" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P29" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q29" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R29" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>46.53713139091684</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J30" t="n">
-        <v>86.44976809300385</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K30" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L30" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M30" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N30" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O30" t="n">
-        <v>246.4410200304128</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P30" t="n">
         <v>194.6172883656587</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.6537981888105</v>
+        <v>121.9026958058229</v>
       </c>
       <c r="R30" t="n">
-        <v>153.204496177857</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>125.2386057829473</v>
+        <v>46.52980108777476</v>
       </c>
       <c r="K31" t="n">
-        <v>339.1910448135804</v>
+        <v>89.41063156709347</v>
       </c>
       <c r="L31" t="n">
-        <v>119.323605328704</v>
+        <v>431.6652312059671</v>
       </c>
       <c r="M31" t="n">
         <v>544.0574371248413</v>
       </c>
       <c r="N31" t="n">
-        <v>423.2358622225979</v>
+        <v>526.6838357496254</v>
       </c>
       <c r="O31" t="n">
-        <v>111.782107261821</v>
+        <v>493.2996065579859</v>
       </c>
       <c r="P31" t="n">
-        <v>408.4354029747642</v>
+        <v>92.52004481990802</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8343494736158</v>
+        <v>54.93182686967738</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J32" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K32" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L32" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M32" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N32" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O32" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P32" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q32" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R32" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.84288306322811</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J33" t="n">
-        <v>234.4158261621709</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K33" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L33" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M33" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N33" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O33" t="n">
-        <v>246.4410200304128</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P33" t="n">
         <v>194.6172883656587</v>
@@ -37171,7 +37171,7 @@
         <v>121.9026958058229</v>
       </c>
       <c r="R33" t="n">
-        <v>46.68378881936634</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>125.2386057829473</v>
+        <v>46.52980108777476</v>
       </c>
       <c r="K34" t="n">
-        <v>89.41063156709345</v>
+        <v>123.358704210365</v>
       </c>
       <c r="L34" t="n">
-        <v>352.9564265107945</v>
+        <v>499.5144069359414</v>
       </c>
       <c r="M34" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967384</v>
       </c>
       <c r="N34" t="n">
         <v>526.6838357496254</v>
       </c>
       <c r="O34" t="n">
-        <v>493.2996065579858</v>
+        <v>493.2996065579859</v>
       </c>
       <c r="P34" t="n">
-        <v>92.52004481990799</v>
+        <v>408.4354029747642</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.93182686967737</v>
+        <v>54.93182686967738</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J35" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K35" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M35" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N35" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O35" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P35" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q35" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R35" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>46.53713139091684</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J36" t="n">
-        <v>86.44976809300385</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K36" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L36" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M36" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N36" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O36" t="n">
-        <v>264.1921224134003</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P36" t="n">
         <v>194.6172883656587</v>
@@ -37408,7 +37408,7 @@
         <v>121.9026958058229</v>
       </c>
       <c r="R36" t="n">
-        <v>153.204496177857</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.52980108777474</v>
+        <v>46.52980108777476</v>
       </c>
       <c r="K37" t="n">
-        <v>339.1910448135804</v>
+        <v>89.41063156709347</v>
       </c>
       <c r="L37" t="n">
-        <v>496.6378939128907</v>
+        <v>499.5144069359414</v>
       </c>
       <c r="M37" t="n">
         <v>544.0574371248413</v>
       </c>
       <c r="N37" t="n">
-        <v>124.6303783335848</v>
+        <v>526.6838357496254</v>
       </c>
       <c r="O37" t="n">
-        <v>111.782107261821</v>
+        <v>425.4504308280114</v>
       </c>
       <c r="P37" t="n">
-        <v>408.4354029747642</v>
+        <v>92.52004481990802</v>
       </c>
       <c r="Q37" t="n">
-        <v>207.8343494736158</v>
+        <v>54.93182686967738</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>47.10286650346194</v>
+        <v>47.10286650346195</v>
       </c>
       <c r="J38" t="n">
-        <v>150.3351007423863</v>
+        <v>150.3351007423864</v>
       </c>
       <c r="K38" t="n">
-        <v>233.6416377945543</v>
+        <v>233.6416377945544</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9102190666725</v>
+        <v>295.9102190666726</v>
       </c>
       <c r="M38" t="n">
-        <v>334.455400753995</v>
+        <v>334.4554007539951</v>
       </c>
       <c r="N38" t="n">
-        <v>340.62455583243</v>
+        <v>340.6245558324301</v>
       </c>
       <c r="O38" t="n">
         <v>319.4532404582396</v>
       </c>
       <c r="P38" t="n">
-        <v>266.9829068488981</v>
+        <v>266.9829068488982</v>
       </c>
       <c r="Q38" t="n">
         <v>192.585901518096</v>
       </c>
       <c r="R38" t="n">
-        <v>98.00658546413845</v>
+        <v>98.00658546413848</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.84288306322811</v>
+        <v>22.84288306322812</v>
       </c>
       <c r="J39" t="n">
-        <v>86.44976809300385</v>
+        <v>234.4158261621705</v>
       </c>
       <c r="K39" t="n">
         <v>160.5848666397392</v>
       </c>
       <c r="L39" t="n">
-        <v>223.5296180123765</v>
+        <v>223.5296180123766</v>
       </c>
       <c r="M39" t="n">
         <v>264.0257847246386</v>
       </c>
       <c r="N39" t="n">
-        <v>273.37881696539</v>
+        <v>273.3788169653901</v>
       </c>
       <c r="O39" t="n">
-        <v>246.4410200304128</v>
+        <v>246.4410200304129</v>
       </c>
       <c r="P39" t="n">
         <v>194.6172883656587</v>
       </c>
       <c r="Q39" t="n">
-        <v>269.86875387499</v>
+        <v>121.9026958058229</v>
       </c>
       <c r="R39" t="n">
-        <v>46.68378881936634</v>
+        <v>46.68378881936636</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L40" t="n">
-        <v>499.5144069359413</v>
+        <v>499.5144069359414</v>
       </c>
       <c r="M40" t="n">
-        <v>126.3448305967384</v>
+        <v>544.0574371248413</v>
       </c>
       <c r="N40" t="n">
-        <v>232.1426904512381</v>
+        <v>358.9604187702178</v>
       </c>
       <c r="O40" t="n">
-        <v>493.2996065579858</v>
+        <v>111.782107261821</v>
       </c>
       <c r="P40" t="n">
-        <v>408.4354029747642</v>
+        <v>92.52004481990802</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.93182686967737</v>
+        <v>207.8343494736158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>47.10286650346194</v>
+        <v>47.1028665034627</v>
       </c>
       <c r="J41" t="n">
         <v>150.3351007423863</v>
@@ -37858,7 +37858,7 @@
         <v>22.84288306322811</v>
       </c>
       <c r="J42" t="n">
-        <v>127.8951188036802</v>
+        <v>234.4158261621709</v>
       </c>
       <c r="K42" t="n">
         <v>160.5848666397392</v>
@@ -37882,7 +37882,7 @@
         <v>121.9026958058229</v>
       </c>
       <c r="R42" t="n">
-        <v>153.204496177857</v>
+        <v>46.68378881936634</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>125.2386057829473</v>
       </c>
       <c r="K43" t="n">
-        <v>89.41063156709345</v>
+        <v>339.1910448135804</v>
       </c>
       <c r="L43" t="n">
         <v>499.5144069359413</v>
       </c>
       <c r="M43" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967384</v>
       </c>
       <c r="N43" t="n">
-        <v>292.8254738618484</v>
+        <v>124.6303783335848</v>
       </c>
       <c r="O43" t="n">
-        <v>111.782107261821</v>
+        <v>493.2996065579858</v>
       </c>
       <c r="P43" t="n">
         <v>408.4354029747642</v>
       </c>
       <c r="Q43" t="n">
-        <v>207.8343494736158</v>
+        <v>162.4441389873307</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>339.1910448135804</v>
       </c>
       <c r="L46" t="n">
-        <v>119.323605328704</v>
+        <v>454.1241964496563</v>
       </c>
       <c r="M46" t="n">
-        <v>544.0574371248413</v>
+        <v>126.3448305967384</v>
       </c>
       <c r="N46" t="n">
-        <v>526.6838357496254</v>
+        <v>124.6303783335848</v>
       </c>
       <c r="O46" t="n">
-        <v>324.2494918896503</v>
+        <v>493.2996065579858</v>
       </c>
       <c r="P46" t="n">
-        <v>92.52004481990799</v>
+        <v>408.4354029747642</v>
       </c>
       <c r="Q46" t="n">
         <v>207.8343494736158</v>
